--- a/docs/Working_hours.xlsx
+++ b/docs/Working_hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikok\repos\raytracer_projectstudies\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDF5540-A4F4-4583-8735-3ADCE85BE746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF82DD91-2021-4143-9E95-61E53ABFF221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B60EEFE-147F-4FEC-8C02-EC787EC742BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Raytracer</t>
   </si>
@@ -60,6 +60,66 @@
   </si>
   <si>
     <t>kokonaistunnit:</t>
+  </si>
+  <si>
+    <t>12.10.2023</t>
+  </si>
+  <si>
+    <t>13.10.2023</t>
+  </si>
+  <si>
+    <t>15.11.2023</t>
+  </si>
+  <si>
+    <t>22.11.2023</t>
+  </si>
+  <si>
+    <t>23.11.2023</t>
+  </si>
+  <si>
+    <t>24.11.2023</t>
+  </si>
+  <si>
+    <t>1.12.2023</t>
+  </si>
+  <si>
+    <t>5.12.2023</t>
+  </si>
+  <si>
+    <t>8.12.2023</t>
+  </si>
+  <si>
+    <t>10.12.2023</t>
+  </si>
+  <si>
+    <t>Compute shaders</t>
+  </si>
+  <si>
+    <t>Compute shaders, uudelleen kirjoittanut vanhaa koodia.</t>
+  </si>
+  <si>
+    <t>Imgui viewportin kanssa taistelua</t>
+  </si>
+  <si>
+    <t>Kameran kanssa työskentelyä</t>
+  </si>
+  <si>
+    <t>Kameran kanssa työskentelyä. Tiedonhakua</t>
+  </si>
+  <si>
+    <t>Tedonhakua imguista. Vielä paranneltavaa dockingin kanssa.</t>
+  </si>
+  <si>
+    <t>Ensimmäinen versio framebuffereista</t>
+  </si>
+  <si>
+    <t>Vähän paranneltu versio framebuffereista</t>
+  </si>
+  <si>
+    <t>Tiedonhakua</t>
+  </si>
+  <si>
+    <t>35.5 oikea tuntimäärä. Laskuri ei laske oikein….</t>
   </si>
 </sst>
 </file>
@@ -150,22 +210,22 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,66 +543,66 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="8">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -550,405 +610,458 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="5">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="6"/>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="2">
+        <v>0.14583333333333334</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="6"/>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="6"/>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="6"/>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="2">
+        <v>0.27083333333333331</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="6"/>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="6"/>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="2">
+        <v>0.14583333333333334</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="6"/>
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="2">
+        <v>0.14583333333333334</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="6"/>
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="2">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="6"/>
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="2">
+        <v>0.13541666666666666</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="6"/>
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="2">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K29" s="7" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="5">
-        <f>SUM(M3:M28)</f>
-        <v>0.16666666666666666</v>
+      <c r="L29" s="5"/>
+      <c r="M29" s="2">
+        <f>SUM(M3:M14)</f>
+        <v>1.4791666666666667</v>
+      </c>
+      <c r="N29" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
     <mergeCell ref="B5:L5"/>
     <mergeCell ref="B21:L21"/>
     <mergeCell ref="B10:L10"/>
@@ -962,6 +1075,16 @@
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B20:L20"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B9:L9"/>
     <mergeCell ref="B28:L28"/>
     <mergeCell ref="B22:L22"/>
     <mergeCell ref="B23:L23"/>

--- a/docs/Working_hours.xlsx
+++ b/docs/Working_hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikok\repos\raytracer_projectstudies\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF82DD91-2021-4143-9E95-61E53ABFF221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D556810-F121-42B8-9EDE-4459FEB65B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B60EEFE-147F-4FEC-8C02-EC787EC742BF}"/>
+    <workbookView xWindow="3600" yWindow="2400" windowWidth="21600" windowHeight="11295" xr2:uid="{9B60EEFE-147F-4FEC-8C02-EC787EC742BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Raytracer</t>
   </si>
@@ -119,7 +119,13 @@
     <t>Tiedonhakua</t>
   </si>
   <si>
-    <t>35.5 oikea tuntimäärä. Laskuri ei laske oikein….</t>
+    <t>11.12.2023</t>
+  </si>
+  <si>
+    <t>uudelleen kirjoittanut asioita test branchissa.(kameran, kamera laitettu takaisin päälle, compute shaderissa jotain vikaa kun ei toimi kameran kanssa</t>
+  </si>
+  <si>
+    <t>43 oikea tuntimäärä. Laskuri ei laske oikein….</t>
   </si>
 </sst>
 </file>
@@ -542,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B946DF9-B112-475C-8DFE-4B6A8215CFF7}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,8 +844,12 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -850,7 +860,9 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="2">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1053,11 +1065,11 @@
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="2">
-        <f>SUM(M3:M14)</f>
-        <v>1.4791666666666667</v>
+        <f>SUM(M3:M15)</f>
+        <v>1.7916666666666667</v>
       </c>
       <c r="N29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Working_hours.xlsx
+++ b/docs/Working_hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikok\repos\raytracer_projectstudies\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D556810-F121-42B8-9EDE-4459FEB65B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFF6398-E2AD-4673-B1AB-6AA0A7A87429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2400" windowWidth="21600" windowHeight="11295" xr2:uid="{9B60EEFE-147F-4FEC-8C02-EC787EC742BF}"/>
+    <workbookView xWindow="3675" yWindow="1320" windowWidth="21600" windowHeight="11295" xr2:uid="{9B60EEFE-147F-4FEC-8C02-EC787EC742BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Raytracer</t>
   </si>
@@ -126,6 +126,24 @@
   </si>
   <si>
     <t>43 oikea tuntimäärä. Laskuri ei laske oikein….</t>
+  </si>
+  <si>
+    <t>12.12.2023</t>
+  </si>
+  <si>
+    <t>Skybox(jonka huomasin ettei se tuu toimimaan) refaktorointia, ray travingistä teoriaa etsinyt</t>
+  </si>
+  <si>
+    <t>13.12.2023</t>
+  </si>
+  <si>
+    <t>Objekti ja materiaali sturctit tehty. Koodia refaktoroitu, objektien attribuutit annetaan c++ koodin puolella. Merge test to dev, merge dev to main</t>
+  </si>
+  <si>
+    <t>14.12.2023</t>
+  </si>
+  <si>
+    <t>Koodin siivousta. Imguin kanssa leikkimistä.</t>
   </si>
 </sst>
 </file>
@@ -219,9 +237,6 @@
     <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -230,6 +245,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -548,66 +566,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B946DF9-B112-475C-8DFE-4B6A8215CFF7}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -616,19 +634,19 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -637,19 +655,19 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="2">
         <v>0.14583333333333334</v>
       </c>
@@ -658,19 +676,19 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="2">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -679,19 +697,19 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -700,19 +718,19 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="2">
         <v>0.27083333333333331</v>
       </c>
@@ -721,19 +739,19 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -742,19 +760,19 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="2">
         <v>0.14583333333333334</v>
       </c>
@@ -763,19 +781,19 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="2">
         <v>0.14583333333333334</v>
       </c>
@@ -784,19 +802,19 @@
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="2">
         <v>0.16666666666666666</v>
       </c>
@@ -805,19 +823,19 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="2">
         <v>0.13541666666666666</v>
       </c>
@@ -826,19 +844,19 @@
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="2">
         <v>0.16666666666666666</v>
       </c>
@@ -847,226 +865,244 @@
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="2">
         <v>0.3125</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="3"/>
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="2">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="3"/>
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="2">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="3"/>
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="2">
+        <v>0.26041666666666669</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="5"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="2">
-        <f>SUM(M3:M15)</f>
-        <v>1.7916666666666667</v>
+        <f>SUM(M3:M18)</f>
+        <v>2.604166666666667</v>
       </c>
       <c r="N29" t="s">
         <v>29</v>
@@ -1074,6 +1110,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
     <mergeCell ref="B5:L5"/>
     <mergeCell ref="B21:L21"/>
     <mergeCell ref="B10:L10"/>
@@ -1087,23 +1140,6 @@
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B20:L20"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Working_hours.xlsx
+++ b/docs/Working_hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikok\repos\raytracer_projectstudies\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFF6398-E2AD-4673-B1AB-6AA0A7A87429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E9DED0-BD74-455C-B575-40499DA829D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="1320" windowWidth="21600" windowHeight="11295" xr2:uid="{9B60EEFE-147F-4FEC-8C02-EC787EC742BF}"/>
+    <workbookView xWindow="-24660" yWindow="1965" windowWidth="21600" windowHeight="11295" xr2:uid="{9B60EEFE-147F-4FEC-8C02-EC787EC742BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Raytracer</t>
   </si>
@@ -125,9 +125,6 @@
     <t>uudelleen kirjoittanut asioita test branchissa.(kameran, kamera laitettu takaisin päälle, compute shaderissa jotain vikaa kun ei toimi kameran kanssa</t>
   </si>
   <si>
-    <t>43 oikea tuntimäärä. Laskuri ei laske oikein….</t>
-  </si>
-  <si>
     <t>12.12.2023</t>
   </si>
   <si>
@@ -144,6 +141,27 @@
   </si>
   <si>
     <t>Koodin siivousta. Imguin kanssa leikkimistä.</t>
+  </si>
+  <si>
+    <t>15.12.2023</t>
+  </si>
+  <si>
+    <t>Ray algoritmin parantelua, heijastuksen koodausta.</t>
+  </si>
+  <si>
+    <t>Yrityksiä saada plane rendattua. Heijastuksen korjailua(ei vieläkään toimi niin kuin haluan) pointlight structin teko.</t>
+  </si>
+  <si>
+    <t>19.12.2023</t>
+  </si>
+  <si>
+    <t>Raytracing refactoring, planen rendaus yrityksiä. Heijastuksen korjausta.</t>
+  </si>
+  <si>
+    <t>20.12.2023</t>
+  </si>
+  <si>
+    <t>66 oikea tuntimäärä. Laskuri ei laske oikein….</t>
   </si>
 </sst>
 </file>
@@ -237,6 +255,9 @@
     <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -245,9 +266,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -566,66 +584,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B946DF9-B112-475C-8DFE-4B6A8215CFF7}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -634,19 +652,19 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -655,19 +673,19 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="2">
         <v>0.14583333333333334</v>
       </c>
@@ -676,19 +694,19 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="2">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -697,19 +715,19 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -718,19 +736,19 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="2">
         <v>0.27083333333333331</v>
       </c>
@@ -739,19 +757,19 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -760,19 +778,19 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="2">
         <v>0.14583333333333334</v>
       </c>
@@ -781,19 +799,19 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="2">
         <v>0.14583333333333334</v>
       </c>
@@ -802,19 +820,19 @@
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="2">
         <v>0.16666666666666666</v>
       </c>
@@ -823,19 +841,19 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="2">
         <v>0.13541666666666666</v>
       </c>
@@ -844,19 +862,19 @@
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="2">
         <v>0.16666666666666666</v>
       </c>
@@ -865,268 +883,269 @@
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="2">
         <v>0.3125</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="2">
         <v>0.34375</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="2">
         <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="2">
         <v>0.26041666666666669</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="3"/>
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="2">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="3"/>
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="2">
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="3"/>
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="2">
+        <v>0.35416666666666669</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="9"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="2">
-        <f>SUM(M3:M18)</f>
-        <v>2.604166666666667</v>
+        <f>SUM(M3:M21)</f>
+        <v>3.5833333333333335</v>
       </c>
       <c r="N29" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
     <mergeCell ref="B5:L5"/>
     <mergeCell ref="B21:L21"/>
     <mergeCell ref="B10:L10"/>
@@ -1140,6 +1159,23 @@
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B20:L20"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Working_hours.xlsx
+++ b/docs/Working_hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikok\repos\raytracer_projectstudies\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E9DED0-BD74-455C-B575-40499DA829D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B145AB14-56C7-424D-891D-3AFA54736620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24660" yWindow="1965" windowWidth="21600" windowHeight="11295" xr2:uid="{9B60EEFE-147F-4FEC-8C02-EC787EC742BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Raytracer</t>
   </si>
@@ -161,7 +161,10 @@
     <t>20.12.2023</t>
   </si>
   <si>
-    <t>66 oikea tuntimäärä. Laskuri ei laske oikein….</t>
+    <t>21.12.2023</t>
+  </si>
+  <si>
+    <t>72.45 oikea tuntimäärä. Laskuri ei laske oikein….</t>
   </si>
 </sst>
 </file>
@@ -255,9 +258,6 @@
     <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,6 +266,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -585,65 +588,65 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -652,19 +655,19 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -673,19 +676,19 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="2">
         <v>0.14583333333333334</v>
       </c>
@@ -694,19 +697,19 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="2">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -715,19 +718,19 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -736,19 +739,19 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="2">
         <v>0.27083333333333331</v>
       </c>
@@ -757,19 +760,19 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -778,19 +781,19 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="2">
         <v>0.14583333333333334</v>
       </c>
@@ -799,19 +802,19 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="2">
         <v>0.14583333333333334</v>
       </c>
@@ -820,19 +823,19 @@
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="2">
         <v>0.16666666666666666</v>
       </c>
@@ -841,19 +844,19 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="2">
         <v>0.13541666666666666</v>
       </c>
@@ -862,19 +865,19 @@
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="2">
         <v>0.16666666666666666</v>
       </c>
@@ -883,19 +886,19 @@
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="2">
         <v>0.3125</v>
       </c>
@@ -904,19 +907,19 @@
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="2">
         <v>0.34375</v>
       </c>
@@ -925,19 +928,19 @@
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="2">
         <v>0.20833333333333334</v>
       </c>
@@ -946,19 +949,19 @@
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="2">
         <v>0.26041666666666669</v>
       </c>
@@ -967,19 +970,19 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="2">
         <v>0.20833333333333334</v>
       </c>
@@ -988,19 +991,19 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -1009,143 +1012,164 @@
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="2">
         <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="3"/>
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="2">
+        <v>0.28125</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="5"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="2">
-        <f>SUM(M3:M21)</f>
-        <v>3.5833333333333335</v>
+        <f>SUM(M3:M22)</f>
+        <v>3.8645833333333335</v>
       </c>
       <c r="N29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
     <mergeCell ref="B5:L5"/>
     <mergeCell ref="B21:L21"/>
     <mergeCell ref="B10:L10"/>
@@ -1159,23 +1183,6 @@
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B20:L20"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Working_hours.xlsx
+++ b/docs/Working_hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikok\repos\raytracer_projectstudies\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B145AB14-56C7-424D-891D-3AFA54736620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BF6412-30A2-4655-B85B-5A6C08F011F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24660" yWindow="1965" windowWidth="21600" windowHeight="11295" xr2:uid="{9B60EEFE-147F-4FEC-8C02-EC787EC742BF}"/>
+    <workbookView xWindow="2460" yWindow="1020" windowWidth="24105" windowHeight="14025" xr2:uid="{9B60EEFE-147F-4FEC-8C02-EC787EC742BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Raytracer</t>
   </si>
@@ -164,7 +164,37 @@
     <t>21.12.2023</t>
   </si>
   <si>
-    <t>72.45 oikea tuntimäärä. Laskuri ei laske oikein….</t>
+    <t>15.1.2024</t>
+  </si>
+  <si>
+    <t>koodin korjailua. Heijastuksen tekoa</t>
+  </si>
+  <si>
+    <t>heiajstuksen tekoa.</t>
+  </si>
+  <si>
+    <t>Heijastuksen tekoa.</t>
+  </si>
+  <si>
+    <t>17.1.2024</t>
+  </si>
+  <si>
+    <t>19.1.2024</t>
+  </si>
+  <si>
+    <t>heijastus toimii oikein? Skyboxin lisäys</t>
+  </si>
+  <si>
+    <t>15.2.2024</t>
+  </si>
+  <si>
+    <t>kameran korjausta(y vaihdettu olemaan ylös koordinaatti, z oli alun perin. Eläkysy miksi, oli päässy lipsahtamaan)</t>
+  </si>
+  <si>
+    <t>16.2.2024</t>
+  </si>
+  <si>
+    <t>Koodin siivousta. Objektien lisäystä. Imguin helpbar lisätty. Bugi löyty, sen korjailua</t>
   </si>
 </sst>
 </file>
@@ -252,12 +282,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -268,9 +299,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -289,9 +320,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -329,7 +360,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -435,7 +466,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -577,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,67 +618,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B946DF9-B112-475C-8DFE-4B6A8215CFF7}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="4">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="8">
+        <v>2</v>
+      </c>
+      <c r="N3" s="10">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -655,20 +689,23 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="2">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="9">
+        <v>2</v>
+      </c>
+      <c r="N4" s="10">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -676,20 +713,23 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="N5" s="10">
         <v>0.14583333333333334</v>
       </c>
     </row>
@@ -697,20 +737,23 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="2">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="N6" s="10">
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
@@ -718,20 +761,23 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="2">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="10">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -739,20 +785,23 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="2">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="N8" s="10">
         <v>0.27083333333333331</v>
       </c>
     </row>
@@ -760,20 +809,23 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="2">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="10">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -781,20 +833,23 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="2">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="N10" s="10">
         <v>0.14583333333333334</v>
       </c>
     </row>
@@ -802,20 +857,23 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="2">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="N11" s="10">
         <v>0.14583333333333334</v>
       </c>
     </row>
@@ -823,20 +881,23 @@
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="2">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="9">
+        <v>4</v>
+      </c>
+      <c r="N12" s="10">
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -844,20 +905,23 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="2">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="9">
+        <v>3.25</v>
+      </c>
+      <c r="N13" s="10">
         <v>0.13541666666666666</v>
       </c>
     </row>
@@ -865,20 +929,23 @@
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="2">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="9">
+        <v>4</v>
+      </c>
+      <c r="N14" s="10">
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -886,20 +953,23 @@
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="2">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="N15" s="10">
         <v>0.3125</v>
       </c>
     </row>
@@ -907,20 +977,23 @@
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="2">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="9">
+        <v>8.25</v>
+      </c>
+      <c r="N16" s="10">
         <v>0.34375</v>
       </c>
     </row>
@@ -928,20 +1001,23 @@
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="2">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="9">
+        <v>5</v>
+      </c>
+      <c r="N17" s="10">
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -949,20 +1025,23 @@
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="2">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="9">
+        <v>6.25</v>
+      </c>
+      <c r="N18" s="10">
         <v>0.26041666666666669</v>
       </c>
     </row>
@@ -970,20 +1049,23 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="2">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="9">
+        <v>5</v>
+      </c>
+      <c r="N19" s="10">
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -991,20 +1073,23 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="2">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="9">
+        <v>10</v>
+      </c>
+      <c r="N20" s="10">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -1012,20 +1097,23 @@
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="2">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="N21" s="10">
         <v>0.35416666666666669</v>
       </c>
     </row>
@@ -1033,143 +1121,173 @@
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="2">
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="9">
+        <v>6.75</v>
+      </c>
+      <c r="N22" s="10">
         <v>0.28125</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="3"/>
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="N23" s="10">
+        <v>0.27083333333333331</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="3"/>
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="N24" s="10">
+        <v>0.27083333333333331</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="3"/>
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="9">
+        <v>3.75</v>
+      </c>
+      <c r="N25" s="10">
+        <v>0.15625</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="3"/>
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="N26" s="10">
+        <v>0.1875</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="3"/>
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="N27" s="10">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="2">
-        <f>SUM(M3:M22)</f>
-        <v>3.8645833333333335</v>
-      </c>
-      <c r="N29" t="s">
-        <v>42</v>
+      <c r="L29" s="3"/>
+      <c r="M29" s="9">
+        <f>SUM(M3:M27)</f>
+        <v>119.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
     <mergeCell ref="B5:L5"/>
     <mergeCell ref="B21:L21"/>
     <mergeCell ref="B10:L10"/>
@@ -1183,7 +1301,25 @@
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B20:L20"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>